--- a/meeting_template.xlsx
+++ b/meeting_template.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Название</t>
   </si>
@@ -27,7 +27,10 @@
     <t>Подразделения</t>
   </si>
   <si>
-    <t>Вопросы повестки</t>
+    <t>Номер вопроса</t>
+  </si>
+  <si>
+    <t>Вопрос повестки</t>
   </si>
   <si>
     <t>Докладчик</t>
@@ -48,18 +51,27 @@
     <t>Первое совметсное</t>
   </si>
   <si>
-    <t>1: Тестовый вопрос 1, 2: Тестовый вопрос 2</t>
+    <t>Тестовый вопрос 1</t>
   </si>
   <si>
     <t>Новый</t>
   </si>
   <si>
-    <t>https://example.com</t>
+    <t>https://example.com/1</t>
   </si>
   <si>
     <t>Север</t>
   </si>
   <si>
+    <t>Тестовый вопрос 2</t>
+  </si>
+  <si>
+    <t>новый без подразделения</t>
+  </si>
+  <si>
+    <t>https://example.com/2</t>
+  </si>
+  <si>
     <t>РМС</t>
   </si>
   <si>
@@ -93,9 +105,6 @@
     <t>Пользователь</t>
   </si>
   <si>
-    <t>новый без подразделения</t>
-  </si>
-  <si>
     <t>Море поет</t>
   </si>
   <si>
@@ -112,6 +121,9 @@
   </si>
   <si>
     <t>новый тип</t>
+  </si>
+  <si>
+    <t>кккк</t>
   </si>
 </sst>
 </file>
@@ -488,17 +500,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="1" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,22 +532,25 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
         <v>11</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -543,13 +558,33 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D3">
       <formula1>Divisions!$A$2:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G3">
       <formula1>Speakers!$B$2:$B$1048576</formula1>
     </dataValidation>
   </dataValidations>
@@ -573,57 +608,57 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +669,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -642,74 +677,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
